--- a/Test Cases.xlsx
+++ b/Test Cases.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="448" documentId="11_F25DC773A252ABDACC1048CBA19B48FE5BDE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{65094348-B83C-4598-A85B-E9312254807C}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="12" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="2508" yWindow="2508" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Logo Verification" sheetId="1" r:id="rId1"/>
@@ -4383,8 +4383,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8765,8 +8765,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{084D5CB2-7DCF-4C06-9D52-7EA274E0D594}">
   <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G21"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11325,7 +11325,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{608A4F99-9251-46A2-B8EA-17689A360606}">
   <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B21"/>
     </sheetView>
   </sheetViews>

--- a/Test Cases.xlsx
+++ b/Test Cases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0b45239f61cd31ee/Documents/Project/Flipkart Clone Testing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="448" documentId="11_F25DC773A252ABDACC1048CBA19B48FE5BDE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{65094348-B83C-4598-A85B-E9312254807C}"/>
+  <xr:revisionPtr revIDLastSave="471" documentId="11_F25DC773A252ABDACC1048CBA19B48FE5BDE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D18AB722-DDEE-4E00-8C40-571793743C27}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="2508" yWindow="2508" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="11" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Logo Verification" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2293" uniqueCount="1285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2312" uniqueCount="1292">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -3920,6 +3920,29 @@
   </si>
   <si>
     <t>All elements are accessible using keyboard navigation.</t>
+  </si>
+  <si>
+    <t>Logo Clearly Visible</t>
+  </si>
+  <si>
+    <t>P0</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>Mail-HarryVerma@hotmail.com
+Password-Harry@45</t>
+  </si>
+  <si>
+    <t>Mail-HarryVerma@hotmail.com
+Password-Harry@46</t>
   </si>
 </sst>
 </file>
@@ -4383,8 +4406,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4459,9 +4482,15 @@
       <c r="G2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
+      <c r="H2" s="2" t="s">
+        <v>1285</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>1286</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>1287</v>
+      </c>
       <c r="K2" s="5"/>
     </row>
     <row r="3" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
@@ -4486,9 +4515,15 @@
       <c r="G3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
+      <c r="H3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>1288</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>1287</v>
+      </c>
       <c r="K3" s="5"/>
     </row>
     <row r="4" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
@@ -4513,9 +4548,15 @@
       <c r="G4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
+      <c r="H4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>1288</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>1289</v>
+      </c>
       <c r="K4" s="5"/>
     </row>
     <row r="5" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
@@ -8125,8 +8166,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A8952A9-0E18-4AAB-AF8F-289943CDDAB2}">
   <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F21"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2:J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8195,15 +8236,21 @@
       <c r="E2" s="2" t="s">
         <v>1164</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>15</v>
+      <c r="F2" s="2" t="s">
+        <v>1290</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>1184</v>
       </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
+      <c r="H2" s="2" t="s">
+        <v>1184</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>1286</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>1287</v>
+      </c>
       <c r="K2" s="5"/>
     </row>
     <row r="3" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
@@ -8222,15 +8269,21 @@
       <c r="E3" s="2" t="s">
         <v>1165</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>15</v>
+      <c r="F3" s="2" t="s">
+        <v>1291</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>1185</v>
       </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
+      <c r="H3" s="2" t="s">
+        <v>1185</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>1288</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>1287</v>
+      </c>
       <c r="K3" s="5"/>
     </row>
     <row r="4" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
@@ -11965,8 +12018,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91468A32-D5D4-418E-A278-7B66A86CD37A}">
   <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12112,13 +12165,21 @@
       <c r="E5" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="F5" s="3"/>
+      <c r="F5" s="2" t="s">
+        <v>1290</v>
+      </c>
       <c r="G5" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="H5" s="2"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
+      <c r="H5" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>1286</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>1287</v>
+      </c>
       <c r="K5" s="5"/>
     </row>
     <row r="6" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">

--- a/Test Cases.xlsx
+++ b/Test Cases.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0b45239f61cd31ee/Documents/Project/Flipkart Clone Testing/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0b45239f61cd31ee/Documents/Project/Flipkart Clone Testing/Flipkart-Clone-Automation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="471" documentId="11_F25DC773A252ABDACC1048CBA19B48FE5BDE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D18AB722-DDEE-4E00-8C40-571793743C27}"/>
+  <xr:revisionPtr revIDLastSave="496" documentId="11_F25DC773A252ABDACC1048CBA19B48FE5BDE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{07828E9D-C586-49E0-A15E-A03741FBA396}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="11" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Logo Verification" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2312" uniqueCount="1292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2327" uniqueCount="1293">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -3943,6 +3943,10 @@
   <si>
     <t>Mail-HarryVerma@hotmail.com
 Password-Harry@46</t>
+  </si>
+  <si>
+    <t>Mail-HarryVerma@hotmail.com
+Password-Harry</t>
   </si>
 </sst>
 </file>
@@ -4135,10 +4139,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8166,7 +8166,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A8952A9-0E18-4AAB-AF8F-289943CDDAB2}">
   <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="J2" sqref="J2:J3"/>
     </sheetView>
   </sheetViews>
@@ -9458,7 +9458,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBE62874-428E-4FF3-AE63-AD313CD43970}">
   <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
@@ -10738,7 +10738,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E7C75F1-A169-4D4A-9676-403FCB81DB90}">
   <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B21"/>
     </sheetView>
   </sheetViews>
@@ -12018,8 +12018,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91468A32-D5D4-418E-A278-7B66A86CD37A}">
   <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5:J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12094,9 +12094,15 @@
       <c r="G2" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
+      <c r="H2" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>1286</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>1287</v>
+      </c>
       <c r="K2" s="5"/>
     </row>
     <row r="3" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
@@ -12115,13 +12121,21 @@
       <c r="E3" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="F3" s="3"/>
+      <c r="F3" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="G3" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
+      <c r="H3" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>1286</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>1287</v>
+      </c>
       <c r="K3" s="5"/>
     </row>
     <row r="4" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
@@ -12140,13 +12154,21 @@
       <c r="E4" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="F4" s="3"/>
+      <c r="F4" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="G4" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
+      <c r="H4" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>1286</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>1287</v>
+      </c>
       <c r="K4" s="5"/>
     </row>
     <row r="5" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
@@ -12198,13 +12220,21 @@
       <c r="E6" s="2" t="s">
         <v>440</v>
       </c>
-      <c r="F6" s="3"/>
+      <c r="F6" s="2" t="s">
+        <v>1292</v>
+      </c>
       <c r="G6" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
+      <c r="H6" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>1288</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>1287</v>
+      </c>
       <c r="K6" s="5"/>
     </row>
     <row r="7" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">

--- a/Test Cases.xlsx
+++ b/Test Cases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0b45239f61cd31ee/Documents/Project/Flipkart Clone Testing/Flipkart-Clone-Automation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="496" documentId="11_F25DC773A252ABDACC1048CBA19B48FE5BDE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{07828E9D-C586-49E0-A15E-A03741FBA396}"/>
+  <xr:revisionPtr revIDLastSave="518" documentId="11_F25DC773A252ABDACC1048CBA19B48FE5BDE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BD1B6FC1-0E6C-4B75-B014-532A6D93EC7F}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Logo Verification" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2327" uniqueCount="1293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2343" uniqueCount="1296">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -3947,6 +3947,17 @@
   <si>
     <t>Mail-HarryVerma@hotmail.com
 Password-Harry</t>
+  </si>
+  <si>
+    <t>Mail-HarryVermahotmail.com
+Password-Harry@45</t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>Logo Is Displayed On
+All Pages</t>
   </si>
 </sst>
 </file>
@@ -4406,8 +4417,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8:J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4581,12 +4592,18 @@
       <c r="G5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="2"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
+      <c r="H5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>1286</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>1287</v>
+      </c>
       <c r="K5" s="5"/>
     </row>
-    <row r="6" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>68</v>
       </c>
@@ -4608,9 +4625,15 @@
       <c r="G6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
+      <c r="H6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>1288</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>1287</v>
+      </c>
       <c r="K6" s="5"/>
     </row>
     <row r="7" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
@@ -4635,9 +4658,15 @@
       <c r="G7" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
+      <c r="H7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>1294</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>1287</v>
+      </c>
       <c r="K7" s="5"/>
     </row>
     <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
@@ -4662,9 +4691,15 @@
       <c r="G8" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
+      <c r="H8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>1294</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>1287</v>
+      </c>
       <c r="K8" s="5"/>
     </row>
     <row r="9" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
@@ -4689,9 +4724,15 @@
       <c r="G9" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="H9" s="2"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
+      <c r="H9" s="2" t="s">
+        <v>1295</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>1286</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>1287</v>
+      </c>
       <c r="K9" s="5"/>
     </row>
     <row r="10" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
@@ -12018,8 +12059,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91468A32-D5D4-418E-A278-7B66A86CD37A}">
   <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5:J6"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12253,7 +12294,9 @@
       <c r="E7" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="F7" s="3"/>
+      <c r="F7" s="2" t="s">
+        <v>1293</v>
+      </c>
       <c r="G7" s="2" t="s">
         <v>461</v>
       </c>

--- a/Test Cases.xlsx
+++ b/Test Cases.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0b45239f61cd31ee/Documents/Project/Flipkart Clone Testing/Flipkart-Clone-Automation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="518" documentId="11_F25DC773A252ABDACC1048CBA19B48FE5BDE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BD1B6FC1-0E6C-4B75-B014-532A6D93EC7F}"/>
+  <xr:revisionPtr revIDLastSave="533" documentId="11_F25DC773A252ABDACC1048CBA19B48FE5BDE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{80141A7D-D7C8-43E0-A86D-73E63D7EF858}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2343" uniqueCount="1296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2355" uniqueCount="1296">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -4150,6 +4150,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4417,8 +4421,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8:J9"/>
+    <sheetView tabSelected="1" topLeftCell="F7" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12:J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4757,9 +4761,15 @@
       <c r="G10" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="H10" s="2"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
+      <c r="H10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>1286</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>1287</v>
+      </c>
       <c r="K10" s="5"/>
     </row>
     <row r="11" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
@@ -4784,9 +4794,15 @@
       <c r="G11" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H11" s="2"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
+      <c r="H11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>1286</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>1287</v>
+      </c>
       <c r="K11" s="5"/>
     </row>
     <row r="12" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
@@ -4811,9 +4827,15 @@
       <c r="G12" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="H12" s="2"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
+      <c r="H12" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>1286</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>1287</v>
+      </c>
       <c r="K12" s="5"/>
     </row>
     <row r="13" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
@@ -4838,9 +4860,15 @@
       <c r="G13" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="H13" s="2"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
+      <c r="H13" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>1288</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>1287</v>
+      </c>
       <c r="K13" s="5"/>
     </row>
     <row r="14" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">

--- a/Test Cases.xlsx
+++ b/Test Cases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0b45239f61cd31ee/Documents/Project/Flipkart Clone Testing/Flipkart-Clone-Automation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="533" documentId="11_F25DC773A252ABDACC1048CBA19B48FE5BDE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{80141A7D-D7C8-43E0-A86D-73E63D7EF858}"/>
+  <xr:revisionPtr revIDLastSave="551" documentId="11_F25DC773A252ABDACC1048CBA19B48FE5BDE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9323B046-4E84-4234-A169-C6A23A4ADC6E}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Logo Verification" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2355" uniqueCount="1296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2370" uniqueCount="1298">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -3958,6 +3958,12 @@
   <si>
     <t>Logo Is Displayed On
 All Pages</t>
+  </si>
+  <si>
+    <t>Logo is not focusable using TAB key</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Logo's &lt;a&gt; tag Dose not has correct href attribute pointing to homepage</t>
   </si>
 </sst>
 </file>
@@ -4421,8 +4427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F7" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12:J13"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4893,9 +4899,15 @@
       <c r="G14" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="H14" s="2"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
+      <c r="H14" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>1294</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>1287</v>
+      </c>
       <c r="K14" s="5"/>
     </row>
     <row r="15" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
@@ -4920,12 +4932,18 @@
       <c r="G15" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="H15" s="2"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
+      <c r="H15" s="2" t="s">
+        <v>1296</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>1288</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>1289</v>
+      </c>
       <c r="K15" s="5"/>
     </row>
-    <row r="16" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>78</v>
       </c>
@@ -4947,12 +4965,18 @@
       <c r="G16" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="H16" s="6"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
+      <c r="H16" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>1288</v>
+      </c>
+      <c r="J16" s="10" t="s">
+        <v>1287</v>
+      </c>
       <c r="K16" s="11"/>
     </row>
-    <row r="17" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>79</v>
       </c>
@@ -4974,9 +4998,15 @@
       <c r="G17" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="H17" s="8"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15"/>
+      <c r="H17" s="8" t="s">
+        <v>1297</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>1294</v>
+      </c>
+      <c r="J17" s="15" t="s">
+        <v>1289</v>
+      </c>
       <c r="K17" s="16"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
@@ -9527,8 +9557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBE62874-428E-4FF3-AE63-AD313CD43970}">
   <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9603,9 +9633,15 @@
       <c r="G2" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
+      <c r="H2" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>1286</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>1287</v>
+      </c>
       <c r="K2" s="5"/>
     </row>
     <row r="3" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">

--- a/Test Cases.xlsx
+++ b/Test Cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0b45239f61cd31ee/Documents/Project/Flipkart Clone Testing/Flipkart-Clone-Automation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="551" documentId="11_F25DC773A252ABDACC1048CBA19B48FE5BDE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9323B046-4E84-4234-A169-C6A23A4ADC6E}"/>
+  <xr:revisionPtr revIDLastSave="600" documentId="11_F25DC773A252ABDACC1048CBA19B48FE5BDE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4E3AAA0E-3B1A-41C0-8B56-6C4C3FB03CF8}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2370" uniqueCount="1298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2400" uniqueCount="1300">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -3964,6 +3964,12 @@
   </si>
   <si>
     <t xml:space="preserve">	Logo's &lt;a&gt; tag Dose not has correct href attribute pointing to homepage</t>
+  </si>
+  <si>
+    <t>No Hover state (color change or underline) is displayed</t>
+  </si>
+  <si>
+    <t>Click any menu → Check if it stays highlighted with color '#ffffff'</t>
   </si>
 </sst>
 </file>
@@ -9557,8 +9563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBE62874-428E-4FF3-AE63-AD313CD43970}">
   <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9644,7 +9650,7 @@
       </c>
       <c r="K2" s="5"/>
     </row>
-    <row r="3" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>81</v>
       </c>
@@ -9666,9 +9672,15 @@
       <c r="G3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
+      <c r="H3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>1288</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>1287</v>
+      </c>
       <c r="K3" s="5"/>
     </row>
     <row r="4" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
@@ -9693,9 +9705,15 @@
       <c r="G4" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
+      <c r="H4" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>1288</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>1287</v>
+      </c>
       <c r="K4" s="5"/>
     </row>
     <row r="5" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
@@ -9720,9 +9738,15 @@
       <c r="G5" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="H5" s="2"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
+      <c r="H5" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>1288</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>1287</v>
+      </c>
       <c r="K5" s="5"/>
     </row>
     <row r="6" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
@@ -9747,9 +9771,15 @@
       <c r="G6" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
+      <c r="H6" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>1288</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>1287</v>
+      </c>
       <c r="K6" s="5"/>
     </row>
     <row r="7" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
@@ -9774,9 +9804,15 @@
       <c r="G7" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
+      <c r="H7" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>1288</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>1287</v>
+      </c>
       <c r="K7" s="5"/>
     </row>
     <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
@@ -9801,9 +9837,15 @@
       <c r="G8" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
+      <c r="H8" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>1288</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>1287</v>
+      </c>
       <c r="K8" s="5"/>
     </row>
     <row r="9" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
@@ -9828,9 +9870,15 @@
       <c r="G9" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="H9" s="2"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
+      <c r="H9" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>1288</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>1287</v>
+      </c>
       <c r="K9" s="5"/>
     </row>
     <row r="10" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
@@ -9855,9 +9903,15 @@
       <c r="G10" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="H10" s="2"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
+      <c r="H10" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>1288</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>1287</v>
+      </c>
       <c r="K10" s="5"/>
     </row>
     <row r="11" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
@@ -9882,12 +9936,18 @@
       <c r="G11" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="H11" s="2"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
+      <c r="H11" s="2" t="s">
+        <v>1298</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>1294</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>1289</v>
+      </c>
       <c r="K11" s="5"/>
     </row>
-    <row r="12" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>90</v>
       </c>
@@ -9907,11 +9967,17 @@
         <v>15</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="H12" s="2"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
+        <v>1299</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>1299</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>1294</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>1287</v>
+      </c>
       <c r="K12" s="5"/>
     </row>
     <row r="13" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">

--- a/Test Cases.xlsx
+++ b/Test Cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0b45239f61cd31ee/Documents/Project/Flipkart Clone Testing/Flipkart-Clone-Automation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="600" documentId="11_F25DC773A252ABDACC1048CBA19B48FE5BDE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4E3AAA0E-3B1A-41C0-8B56-6C4C3FB03CF8}"/>
+  <xr:revisionPtr revIDLastSave="621" documentId="11_F25DC773A252ABDACC1048CBA19B48FE5BDE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0AF7E9AB-1A91-446B-A148-55EBA35760FA}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2400" uniqueCount="1300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2418" uniqueCount="1300">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -4433,7 +4433,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
+    <sheetView topLeftCell="F22" workbookViewId="0">
       <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
@@ -9563,8 +9563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBE62874-428E-4FF3-AE63-AD313CD43970}">
   <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" topLeftCell="E14" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17:J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10002,12 +10002,18 @@
       <c r="G13" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="H13" s="2"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
+      <c r="H13" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>1294</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>1287</v>
+      </c>
       <c r="K13" s="5"/>
     </row>
-    <row r="14" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>92</v>
       </c>
@@ -10029,9 +10035,15 @@
       <c r="G14" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="H14" s="2"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
+      <c r="H14" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>1294</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>1287</v>
+      </c>
       <c r="K14" s="5"/>
     </row>
     <row r="15" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
@@ -10056,9 +10068,15 @@
       <c r="G15" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="H15" s="2"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
+      <c r="H15" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>1294</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>1287</v>
+      </c>
       <c r="K15" s="5"/>
     </row>
     <row r="16" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
@@ -10083,9 +10101,15 @@
       <c r="G16" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="H16" s="6"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
+      <c r="H16" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>1294</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>1287</v>
+      </c>
       <c r="K16" s="11"/>
     </row>
     <row r="17" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
@@ -10110,9 +10134,15 @@
       <c r="G17" s="17" t="s">
         <v>143</v>
       </c>
-      <c r="H17" s="17"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="19"/>
+      <c r="H17" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>1288</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>1287</v>
+      </c>
       <c r="K17" s="20"/>
     </row>
     <row r="18" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
@@ -10137,9 +10167,15 @@
       <c r="G18" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="H18" s="8"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="15"/>
+      <c r="H18" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>1294</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>1287</v>
+      </c>
       <c r="K18" s="16"/>
     </row>
     <row r="19" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
@@ -10270,7 +10306,7 @@
   <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B21"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Test Cases.xlsx
+++ b/Test Cases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0b45239f61cd31ee/Documents/Project/Flipkart Clone Testing/Flipkart-Clone-Automation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="621" documentId="11_F25DC773A252ABDACC1048CBA19B48FE5BDE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0AF7E9AB-1A91-446B-A148-55EBA35760FA}"/>
+  <xr:revisionPtr revIDLastSave="650" documentId="11_F25DC773A252ABDACC1048CBA19B48FE5BDE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4B600977-A60B-491A-9B5C-593B51415958}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Logo Verification" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2418" uniqueCount="1300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2439" uniqueCount="1300">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -9563,8 +9563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBE62874-428E-4FF3-AE63-AD313CD43970}">
   <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E14" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17:J18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J20" sqref="J20:J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10200,12 +10200,18 @@
       <c r="G19" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="H19" s="8"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="15"/>
+      <c r="H19" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>1294</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>1287</v>
+      </c>
       <c r="K19" s="16"/>
     </row>
-    <row r="20" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
         <v>98</v>
       </c>
@@ -10227,9 +10233,15 @@
       <c r="G20" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="H20" s="8"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="15"/>
+      <c r="H20" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>1294</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>1287</v>
+      </c>
       <c r="K20" s="16"/>
     </row>
     <row r="21" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
@@ -10254,9 +10266,15 @@
       <c r="G21" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="H21" s="8"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="15"/>
+      <c r="H21" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>1294</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>1287</v>
+      </c>
       <c r="K21" s="16"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
@@ -10305,8 +10323,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8635808B-69EC-40F0-BAB4-86EED1BFFCAC}">
   <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4:J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10381,9 +10399,15 @@
       <c r="G2" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
+      <c r="H2" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>1286</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>1287</v>
+      </c>
       <c r="K2" s="5"/>
     </row>
     <row r="3" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
@@ -10408,9 +10432,15 @@
       <c r="G3" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
+      <c r="H3" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>1286</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>1287</v>
+      </c>
       <c r="K3" s="5"/>
     </row>
     <row r="4" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
@@ -10435,9 +10465,15 @@
       <c r="G4" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
+      <c r="H4" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>1286</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>1287</v>
+      </c>
       <c r="K4" s="5"/>
     </row>
     <row r="5" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
@@ -10462,9 +10498,15 @@
       <c r="G5" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="H5" s="2"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
+      <c r="H5" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>1286</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>1287</v>
+      </c>
       <c r="K5" s="5"/>
     </row>
     <row r="6" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
